--- a/public/templates/plantilla-importacion-contactos.xlsx
+++ b/public/templates/plantilla-importacion-contactos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonei\Desktop\Repositorios\easywork-app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2713C4-F8CB-42C4-83C2-C496794B76A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73278A7-B42A-4B76-81B3-2CE58D36C38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1770" windowWidth="22560" windowHeight="13770" xr2:uid="{E42B793C-3643-41AB-B4B3-FAE791F5621D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E42B793C-3643-41AB-B4B3-FAE791F5621D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nombres</t>
   </si>
@@ -53,9 +43,6 @@
   </si>
   <si>
     <t>Cua</t>
-  </si>
-  <si>
-    <t>Codigo</t>
   </si>
   <si>
     <t>Direccion</t>
@@ -474,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66135031-B0C8-499D-BB3A-43696C0DF6D9}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -487,26 +474,25 @@
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -570,16 +556,13 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
